--- a/Tabela/Copacabana/Copacabana-2.xlsx
+++ b/Tabela/Copacabana/Copacabana-2.xlsx
@@ -14,342 +14,363 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="112">
-  <si>
-    <t>Apenas 23 unidades de 3 e 4 quartos de até 179 M² com suíte e varanda.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="119">
+  <si>
+    <t>APARTAMENTOS DE 2 E 3 QUARTOS, COM AS SUÍTES MAIS ESPAÇOSAS DE BOTAFOGO, LAZER EXCLUSIVO E UM CLIMA INTIMISTA QUE CONFERE AOS APARTAMENTOS UM JEITO DE CASA, COM AMPLAS VARANDAS OU...</t>
   </si>
   <si>
     <t>Mensagem</t>
   </si>
   <si>
+    <t>mais</t>
+  </si>
+  <si>
     <t>super destaque</t>
   </si>
   <si>
+    <t>R$ 1.580.000</t>
+  </si>
+  <si>
     <t>destaque</t>
   </si>
   <si>
-    <t>R$ 300.000</t>
-  </si>
-  <si>
-    <t>A Lagoa é uma das regiões mai...</t>
-  </si>
-  <si>
-    <t>R$ 2.000.000</t>
-  </si>
-  <si>
-    <t>R$ 599.000</t>
-  </si>
-  <si>
-    <t>R$ 565.000</t>
-  </si>
-  <si>
-    <t>R$ 1.695.000</t>
-  </si>
-  <si>
-    <t>R$ 2.250.000</t>
-  </si>
-  <si>
-    <t>R$ 525.000</t>
-  </si>
-  <si>
-    <t>R$ 1.950.000</t>
-  </si>
-  <si>
-    <t>R$ 1.990.000</t>
-  </si>
-  <si>
-    <t>R$ 470.000</t>
-  </si>
-  <si>
-    <t>R$ 999.000</t>
-  </si>
-  <si>
-    <t>R$ 480.000</t>
-  </si>
-  <si>
-    <t>R$ 520.000</t>
-  </si>
-  <si>
-    <t>R$ 2.970.000</t>
-  </si>
-  <si>
-    <t>R$ 1.600.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 750 IPTU R$ 250</t>
+    <t>R$ 395.000</t>
+  </si>
+  <si>
+    <t>R$ 2.799.000</t>
   </si>
   <si>
     <t>R$ 1.300.000</t>
   </si>
   <si>
-    <t>R$ 698.000</t>
-  </si>
-  <si>
-    <t>R$ 750.000</t>
-  </si>
-  <si>
-    <t>R$ 699.500</t>
-  </si>
-  <si>
-    <t>R$ 600.000</t>
-  </si>
-  <si>
-    <t>mais</t>
-  </si>
-  <si>
-    <t>condomínio R$ 2.540 IPTU R$ 7.406</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.200 IPTU R$ 226</t>
-  </si>
-  <si>
-    <t>condomínio R$ 800 IPTU R$ 65</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.150 IPTU R$ 560</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.800 IPTU R$ 5.400</t>
-  </si>
-  <si>
-    <t>condomínio R$ 650 IPTU R$ 300</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.700 IPTU R$ 4.952</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.900 IPTU R$ 6.190</t>
-  </si>
-  <si>
-    <t>condomínio R$ 659 IPTU R$ 115</t>
-  </si>
-  <si>
-    <t>condomínio R$ 900 IPTU R$ 500</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.611 IPTU R$ 634</t>
-  </si>
-  <si>
-    <t>condomínio R$ 800 IPTU R$ 1.200</t>
-  </si>
-  <si>
-    <t>condomínio R$ 2.729 IPTU R$ 345</t>
-  </si>
-  <si>
-    <t>condomínio R$ 2.900 IPTU R$ 7.100</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.200 IPTU R$ 5.021</t>
-  </si>
-  <si>
-    <t>excepcional sala com ante-sala, com 1 banheiro,esquina de av. Copacabana, toda de frente.</t>
-  </si>
-  <si>
-    <t>condomínio R$ 900 IPTU R$ 240</t>
-  </si>
-  <si>
-    <t>condomínio R$ 850 IPTU R$ 2.096</t>
-  </si>
-  <si>
-    <t>condomínio R$ 970 IPTU R$ 2.085</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.090 IPTU R$ 361</t>
-  </si>
-  <si>
-    <t>IPTU R$ 7.338</t>
-  </si>
-  <si>
-    <t>Rua Carvalho Azevedo, Lagoa</t>
-  </si>
-  <si>
-    <t>Excelente localização, quadra da praia, prédio com ótima portaria, um por andar, super claro, arejado, reformado, 2 salas, lavabo, 4 quartos amplos, sendo 2 suítes, banheiro social...</t>
-  </si>
-  <si>
-    <t>Ótimo apartamento no Bairro Peixoto, rua bucólica, tranquila, e próximo à praça. Composto por sala ampla para 2 ambientes, 2 quartos sendo 1 com armários embutidos, banheiro social...</t>
-  </si>
-  <si>
-    <t>MARAVILHOSO APARTAMENTO DE DOIS QUARTOS COM SUITE!!!!! Apartamento amplo, claro e arejado, composto por sala bem iluminada, dois quartos sendo um suíte, banheiro social amplo com b...</t>
-  </si>
-  <si>
-    <t>Copacabana Posto 6 - Apartamento 3 quartos reformadíssimo, clean, em prédio totalmente residencial. Composto de sala em dois ambientes com piso em porcelanato, 3 quartos amplos e a...</t>
-  </si>
-  <si>
-    <t>Santa Clara - Abraçado Pelo Verde! Lindo apartamento com 170m², lindamente reformado, com acabamento primoroso. Amplo salão para vários ambientes, varandão com opção de ficar abert...</t>
-  </si>
-  <si>
-    <t>HILÁRIO GOUVEIA, bem arejado, bate sol o dia interno, vista da janela do quarto para praça arborizada e para um pedação da praia, portaria 24h. A uma quadra da praia, do merdado Pa...</t>
-  </si>
-  <si>
-    <t>IMPERDÍVEL!!!! QUADRÍSSIMA,VISTÃO MAR, PRAIA!!! BELO APARTAMENTO, PRÉDIO IMPONENTE, VISTA MAR, SOL MANHÃ, SALÃO, 4 QUARTOS ORIGINALMENTE, HOJE COM 3 QUARTOS E UMA SALA DE JANTAR AM...</t>
-  </si>
-  <si>
-    <t>Excelente localização! Perto da praia, comércio, meios de transportes! Edifício imponente, play, salão de festas! Apartamento composto de varandão, salão em 2 ambientes, sala de ja...</t>
-  </si>
-  <si>
-    <t>Rua Edmundo Lins, próximo à praia/metrô, localização privilegiada. Excelente quarto e sala separados, circulação, banheiro social, cozinha (cabe fogão e geladeira), andar alto, fre...</t>
-  </si>
-  <si>
-    <t>MARAVILHOSA OPORTUNIDADE RUA SANTA CLARA EM COPACABANA. OPORTUNIDADE .APARTAMENTO DE FRENTE, PERTÍSSIMO DA PRAIA 3 QUARTOS SENDO 1 SUITE COM DEPENDÊNCIA COMPLETA, SALA EM DOIS AMBI...</t>
-  </si>
-  <si>
-    <t>Excelente apartamento no bairro Copacabana com 190 metros quadrados composto por 3 quartos ( 1 suíte canadense), 3 banheiros, 1 lavabo, armários, copa/cozinha com àrea e dependênci...</t>
-  </si>
-  <si>
-    <t>Ótimo 2 Quartos com melhor preço de Copacabana! Apartamento original, planta de dois quartos à reformar, ambientes espaçosos e bem iluminado, cozinha grande com bastante espaço par...</t>
-  </si>
-  <si>
-    <t>EXCELENTE LOCALIZAÇÃO - AV PRINCESA ISABEL PRÓXIMO À PRAIA DO LEME E COPACABANA - HALL DE ENTRADA SALA 2QTS (SENDO 1 SUÍTE) INDEPENDENTES VARANDA COZINHA ESTILO AMERICANA BANHEIRO,...</t>
-  </si>
-  <si>
-    <t>OPORTUNIDADE DIRETO C PROPRIETARIO - NÃO ACEITO CORRETORES - Localização ideal no posto 4, rua do metrô e na esquina da praia. Espaçoso, ensolarado, com varanda interna em mármore...</t>
-  </si>
-  <si>
-    <t>O apartamento no bairro Copacabana tem 193 metros quadrados com 3 quartos sendo 1 suite e 1 banheiro, Escritório em ambiente separado da sala. Pequena área externa junto as dependê...</t>
-  </si>
-  <si>
-    <t>Cód: CPAP21113. Excelente imóvel composto de sala em 2 ambientes 2 quartos com 2 suites sendo uma suite canadenses banheiros decorados cozinha planejada imóvel claro e arejado todo...</t>
-  </si>
-  <si>
-    <t>Vende-se ótimo apartamento de sala, 2 quartos, 1 banheiro social, ótima cozinha, área de serviço. Vista bonita, frente para rua. No coração de Copacabana. Próximo ao metrô da Carde...</t>
-  </si>
-  <si>
-    <t>Bom apartamento de dois quartos, sala, cozinha, banheiro social, área de serviço e dependência completa de empregada. Com uma vaga de garagem, andar alto e de frente.</t>
-  </si>
-  <si>
-    <t>Sr. Investidor, espere a valorização do imóvel recebendo renda desde o primeiro mês. Está alugado por excelente inquilino. O imóvel possui valor segundo a prefeitura de R$800.000....</t>
-  </si>
-  <si>
-    <t>Passo bar e restaurante totalmente reformado, modernizado e equipado no Posto 6 em loja de frente para Av.N.Sra de Copacabana, com caixa d'água reserva de 8000 L. Aluguel apenas de...</t>
-  </si>
-  <si>
-    <t>109 - 179 m²</t>
-  </si>
-  <si>
-    <t>Rua Constante Ramos, Copacabana</t>
-  </si>
-  <si>
-    <t>3 - 4</t>
+    <t>R$ 449.000</t>
+  </si>
+  <si>
+    <t>R$ 890.000</t>
+  </si>
+  <si>
+    <t>R$ 350.000</t>
+  </si>
+  <si>
+    <t>Rua Visconde de Silva, Botafogo</t>
+  </si>
+  <si>
+    <t>R$ 1.320.000</t>
+  </si>
+  <si>
+    <t>R$ 3.000.000</t>
+  </si>
+  <si>
+    <t>R$ 1.400.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.275 IPTU R$ 4.937</t>
+  </si>
+  <si>
+    <t>R$ 530.000</t>
+  </si>
+  <si>
+    <t>R$ 1.450.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 490 IPTU R$ 2.300</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.208 IPTU R$ 500</t>
+  </si>
+  <si>
+    <t>R$ 700.000</t>
+  </si>
+  <si>
+    <t>R$ 380.000</t>
+  </si>
+  <si>
+    <t>R$ 1.190.000</t>
+  </si>
+  <si>
+    <t>LEILÃO EM 25 DE NOVEMBRO – Oportunidade na Cinco de Julho, perto da Dias da Rocha!!!</t>
+  </si>
+  <si>
+    <t>R$ 280.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 518 IPTU R$ 50</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.100 IPTU R$ 3.039</t>
+  </si>
+  <si>
+    <t>condomínioR$ 650 IPTU R$ 307</t>
+  </si>
+  <si>
+    <t>R$ 995.000</t>
+  </si>
+  <si>
+    <t>R$ 529.000</t>
+  </si>
+  <si>
+    <t>R$ 690.000</t>
+  </si>
+  <si>
+    <t>R$ 1.740.000</t>
+  </si>
+  <si>
+    <t>78 - 102 m²</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.200 IPTU R$ 235</t>
+  </si>
+  <si>
+    <t>condomínioR$ 2.795 IPTU R$ 1.199</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.460 IPTU R$ 415</t>
+  </si>
+  <si>
+    <t>Corte do Canta Galo - Ligação da Lagoa Rodrigo de Freitas para Copacabana, fácil e próximo acesso da Estação do Metro Cantagalo.</t>
+  </si>
+  <si>
+    <t>condomínioR$ 500 IPTU R$ 726</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.262 IPTU R$ 441</t>
+  </si>
+  <si>
+    <t>Apartamento silencioso na quadra da praia. Apartamento todo reformado, claro, com 30 metros quadrados com saleta, 1 quarto, banheiro social, cozinha com fogão Cooktop, espaço e ins...</t>
+  </si>
+  <si>
+    <t>Luxuoso ! Apartamento pronto para morar! 1 quadra da praia , vista lateral mar pela sala , sala com 3 ambientes, piso porcelanato, 3 quartos , 1 suíte , 3 banheiros , dependência c...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 537 IPTU R$ 210</t>
+  </si>
+  <si>
+    <t>condomínioR$ 800 IPTU R$ 2.704</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.307 IPTU R$ 340</t>
+  </si>
+  <si>
+    <t>condomínioR$ 413 IPTU R$ 355</t>
+  </si>
+  <si>
+    <t>O kitnet/conjugado no bairro Copacabana com 31 metros quadrados com 1 quarto e 1 banheiro</t>
+  </si>
+  <si>
+    <t>Apartamento de 3 dormitórios com 90m2 à venda em Copacabana.</t>
+  </si>
+  <si>
+    <t>RUA SIQUEIRA CAMPOS - COPACABANA - RJ.</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.200 IPTU R$ 3.400</t>
+  </si>
+  <si>
+    <t>condomínioR$ 390 IPTU R$ 111</t>
+  </si>
+  <si>
+    <t>condomínioR$ 755 IPTU R$ 715</t>
+  </si>
+  <si>
+    <t>condomínioR$ 797 IPTU R$ 519</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.168 IPTU R$ 404</t>
+  </si>
+  <si>
+    <t>2 - 3</t>
+  </si>
+  <si>
+    <t>Um imóvel lindo, todo reformado e finamente mobiliado em localização privilegiada de Copacabana próximo a praia, comércio da região e ao metrô. Apartamento claro , arejado e silenc...</t>
+  </si>
+  <si>
+    <t>No Posto 3, ótimo prédio com portaria 24h.</t>
+  </si>
+  <si>
+    <t>(Código: 24751, Rua Paula Freitas) - Copacabana. Local nobre. Edifício com total infraestrutura de lazer e serviços composta por playground, salão de festas, piscina, sauna, academ...</t>
+  </si>
+  <si>
+    <t>Planta diferenciada, com 113m² no IPTU. Prédio...</t>
+  </si>
+  <si>
+    <t>Apartamento tipo loft, dividido em sala quarto, de frente com vista livre, totalmente reformado e finamente decorado. Cheio de armários planejados no quarto, cozinha e banheiro, ár...</t>
+  </si>
+  <si>
+    <t>Excelente 3 quartos, reformado, piso em porcelanato, splits.</t>
+  </si>
+  <si>
+    <t>Copacabana,Dois Quartos com Varanda. Excelente Localização. O imóvel tem 74 metros quadrados mais uma Varanda super charmosa. O apartamento está todo reformado com fino acabamento,...</t>
+  </si>
+  <si>
+    <t>Consultório dentário completo com sala de espera/recepção, sala de atendimento e área de esterilização, banheiro pronto para funcionar, repleto de armários. Excelente localização n...</t>
+  </si>
+  <si>
+    <t>Maravilhoso apartamento silencioso em Copacabana. 146 m², generosa sala em 2 ambientes com largas janelas, 3 quartos sendo 1 suíte, closet, 1 lavabo clean, 1 banheiro social e espa...</t>
+  </si>
+  <si>
+    <t>Valor inicial: R$ 2.600.000,00</t>
+  </si>
+  <si>
+    <t>Sala comercial bem localizada, próxima ao metrô da Siqueira Campos e no coração de Copacabana, com todo comércio local punjante. O imóvel encontra-se em excelente estado, com excel...</t>
+  </si>
+  <si>
+    <t>Vai lhe possibilitar todo o conforto do ar condicionado nos dias mais quentes.Já está c...</t>
+  </si>
+  <si>
+    <t>Localizado próximo da estação de metrô Cantagalo em uma região que oferece tudo que você precisa para viver bem. Es...</t>
+  </si>
+  <si>
+    <t>Apartamento na quadra da Praia.</t>
+  </si>
+  <si>
+    <t>MOBILIADO, Desocupado, reformado, conjugadão transformado em quarto e sala, 46 m², todo em porcelanato 60x60, (elétrica, hidráulica, pintura e gás tudo novo), sala, cozinha com cop...</t>
+  </si>
+  <si>
+    <t>Oportunidade!!Maravilhoso !!quarto e sala todo reformado piso em granito banheiro amplo com maquina que lava e seca, cozinha com fogão, geladeira, armário, sala com sofá de 3 lugar...</t>
+  </si>
+  <si>
+    <t>(Exclusividade Carla) Apartamento com 3 quartos à venda, 150 m² por R$ 1.300.000 - Copacabana - Rio de Janeiro/RJ.</t>
+  </si>
+  <si>
+    <t>Excelente oportunidade no posto 6 de Copacabana. Apartamento totalmente reformado, com vista lateral mar, composto de sala ampla em dois ambientes, 3 quartos sendo 2 suítes repleto...</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Excelente apartamento com 237m, frontal/mar, muito claro, amplo e ventilado, original 4 quartos, hoje com 3 quartos, já que 1 deles f...</t>
+  </si>
+  <si>
+    <t>Rua Siqueira Campos, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Rodolfo Dantas, Copacabana</t>
+  </si>
+  <si>
+    <t>Avaliação: R$ 1.300.000,00</t>
+  </si>
+  <si>
+    <t>SALA COMERCIAL À VENDA, ANDAR ALTO , FUNDOS, PISO FRIO, TODO MODERNIZADA, COM DOIS AMBIENTES, COZINHA COM ARMÁRIOS E BANHEIRO.</t>
+  </si>
+  <si>
+    <t>Avenida Nossa Senhora de Copacabana, Copacabana</t>
   </si>
   <si>
     <t>Rua Paula Freitas, Copacabana</t>
   </si>
   <si>
-    <t>Rua Décio Vilares, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Barata Ribeiro, Copacabana</t>
+    <t>Copacabana, Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>1 suíte, varandão, grande área de serviço.</t>
+  </si>
+  <si>
+    <t>30 m²</t>
+  </si>
+  <si>
+    <t>135 m²</t>
+  </si>
+  <si>
+    <t>Rua Tonelero, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Júlio de Castilhos, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Professor Gastão Bahiana, Copacabana</t>
+  </si>
+  <si>
+    <t>Apartamento andar alto, vista livre,reformado , 3 quartos , uma suíte,sala em dois ambientes, banheiro social, cozinha, área de serviço, depe...</t>
+  </si>
+  <si>
+    <t>A Imobiliária WMartins vende ótimo apartamento composto de...</t>
   </si>
   <si>
     <t>Rua Souza Lima, Copacabana</t>
   </si>
   <si>
-    <t>Rua Santa Clara, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Hilário de Gouveia, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Sá Ferreira, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Júlio de Castilhos, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Edmundo Lins, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Domingos Ferreira, Copacabana</t>
-  </si>
-  <si>
-    <t>Avenida Princesa Isabel, Copacabana</t>
+    <t>95 m²</t>
+  </si>
+  <si>
+    <t>Avenida Atlântica, Copacabana</t>
+  </si>
+  <si>
+    <t>79 m²</t>
+  </si>
+  <si>
+    <t>113 m²</t>
+  </si>
+  <si>
+    <t>36 m²</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>74 m²</t>
+  </si>
+  <si>
+    <t>31 m²</t>
+  </si>
+  <si>
+    <t>146 m²</t>
+  </si>
+  <si>
+    <t>São 190m² no IPTU...</t>
+  </si>
+  <si>
+    <t>24 m²</t>
+  </si>
+  <si>
+    <t>90 m²</t>
+  </si>
+  <si>
+    <t>46 m²</t>
+  </si>
+  <si>
+    <t>42 m²</t>
+  </si>
+  <si>
+    <t>130 m²</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>237 m²</t>
+  </si>
+  <si>
+    <t>Andar alto, janelas antí ruído, vista lateral do mar de Copac...</t>
+  </si>
+  <si>
+    <t>38 m²</t>
+  </si>
+  <si>
+    <t>Rua Duvivier, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Barão de Ipanema, Copacabana</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Rua Cinco de Julho, Copacabana</t>
+  </si>
+  <si>
+    <t>110 m²</t>
+  </si>
+  <si>
+    <t>150 m²</t>
   </si>
   <si>
     <t>Rua Figueiredo Magalhães, Copacabana</t>
   </si>
   <si>
-    <t>35 m²</t>
-  </si>
-  <si>
-    <t>Rua Xavier da Silveira, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Inhanga, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Duvivier, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Pompeu Loureiro, Copacabana</t>
-  </si>
-  <si>
-    <t>Avenida Nossa Senhora de Copacabana, Copacabana</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>215 m²</t>
-  </si>
-  <si>
-    <t>70 m²</t>
-  </si>
-  <si>
-    <t>75 m²</t>
-  </si>
-  <si>
-    <t>195 m²</t>
-  </si>
-  <si>
-    <t>170 m²</t>
-  </si>
-  <si>
-    <t>47 m²</t>
-  </si>
-  <si>
-    <t>164 m²</t>
-  </si>
-  <si>
-    <t>142 m²</t>
-  </si>
-  <si>
-    <t>40 m²</t>
-  </si>
-  <si>
-    <t>145 m²</t>
-  </si>
-  <si>
     <t>190 m²</t>
   </si>
   <si>
-    <t>300 m²</t>
-  </si>
-  <si>
-    <t>193 m²</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>88 m²</t>
-  </si>
-  <si>
-    <t>71 m²</t>
-  </si>
-  <si>
-    <t>42 m²</t>
-  </si>
-  <si>
-    <t>45 m²</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>144 m²</t>
   </si>
 </sst>
 </file>
@@ -707,13 +728,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:16">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -747,34 +768,46 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -782,37 +815,37 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
         <v>91</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -820,37 +853,40 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="K4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>73</v>
+      </c>
+      <c r="M4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,34 +894,37 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
         <v>93</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="K5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>106</v>
+      </c>
+      <c r="L5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -893,37 +932,37 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
         <v>94</v>
       </c>
       <c r="J6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -931,37 +970,34 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s">
         <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -969,31 +1005,43 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" t="s">
         <v>96</v>
       </c>
-      <c r="J8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1001,37 +1049,31 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" t="s">
-        <v>90</v>
-      </c>
-      <c r="L9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1039,37 +1081,34 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1077,34 +1116,34 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1112,37 +1151,28 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K12" t="s">
-        <v>104</v>
-      </c>
-      <c r="L12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1150,37 +1180,34 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1188,34 +1215,40 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" t="s">
         <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>113</v>
+      </c>
+      <c r="L14" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" t="s">
+        <v>96</v>
+      </c>
+      <c r="N14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1223,37 +1256,31 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" t="s">
-        <v>104</v>
-      </c>
-      <c r="L15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1261,37 +1288,34 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J16" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="K16" t="s">
-        <v>104</v>
-      </c>
-      <c r="L16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1299,37 +1323,37 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J17" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="K17" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="L17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1337,28 +1361,31 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1366,37 +1393,37 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K19" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="L19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>96</v>
+      </c>
+      <c r="M19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1404,34 +1431,34 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="J20" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="K20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1439,37 +1466,34 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J21" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="K21" t="s">
-        <v>104</v>
-      </c>
-      <c r="L21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1477,37 +1501,40 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I22" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K22" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="L22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>96</v>
+      </c>
+      <c r="M22" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1515,28 +1542,34 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J23" t="s">
-        <v>104</v>
+        <v>96</v>
+      </c>
+      <c r="K23" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
